--- a/src/playlistprueba.xlsx
+++ b/src/playlistprueba.xlsx
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/playlistprueba.xlsx
+++ b/src/playlistprueba.xlsx
@@ -121,7 +121,7 @@
     <t xml:space="preserve">Cotiza 2016</t>
   </si>
   <si>
-    <t xml:space="preserve">D:\Placas\MDQ\partidas.bmp</t>
+    <t xml:space="preserve">D:\MEME.bmp</t>
   </si>
 </sst>
 </file>
@@ -164,10 +164,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <u val="single"/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,28 +214,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -432,670 +438,670 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>70265730</v>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>46020</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="n">
+      <c r="B2" s="4" t="n">
+        <v>46020</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>17250</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="n">
+      <c r="J2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>70265731</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>46020</v>
-      </c>
-      <c r="C3" s="4" t="n">
+      <c r="B3" s="4" t="n">
+        <v>46020</v>
+      </c>
+      <c r="C3" s="5" t="n">
         <v>0.000127314814814815</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="n">
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="n">
+      <c r="F3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1" t="n">
+      <c r="J3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>70274967</v>
       </c>
-      <c r="B4" s="3" t="n">
-        <v>46020</v>
-      </c>
-      <c r="C4" s="4" t="n">
+      <c r="B4" s="4" t="n">
+        <v>46020</v>
+      </c>
+      <c r="C4" s="5" t="n">
         <v>0.000127314814814815</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="n">
+      <c r="D4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="n">
+      <c r="F4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
         <v>260</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="J4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="K4" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>70274968</v>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>46020</v>
-      </c>
-      <c r="C5" s="4" t="n">
+      <c r="B5" s="4" t="n">
+        <v>46020</v>
+      </c>
+      <c r="C5" s="5" t="n">
         <v>0.000127314814814815</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="n">
+      <c r="D5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="n">
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="n">
         <v>289</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="J5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="K5" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>70265732</v>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>46020</v>
-      </c>
-      <c r="C6" s="4" t="n">
+      <c r="B6" s="4" t="n">
+        <v>46020</v>
+      </c>
+      <c r="C6" s="5" t="n">
         <v>0.000763888888888889</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="n">
+      <c r="D6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="J6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="K6" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>70265733</v>
       </c>
-      <c r="B7" s="3" t="n">
-        <v>46020</v>
-      </c>
-      <c r="C7" s="4" t="n">
+      <c r="B7" s="4" t="n">
+        <v>46020</v>
+      </c>
+      <c r="C7" s="5" t="n">
         <v>0.00134259259259259</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="n">
+      <c r="D7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="1" t="n">
+      <c r="J7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K7" s="1" t="n">
+      <c r="K7" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>70265734</v>
       </c>
-      <c r="B8" s="3" t="n">
-        <v>46020</v>
-      </c>
-      <c r="C8" s="4" t="n">
+      <c r="B8" s="4" t="n">
+        <v>46020</v>
+      </c>
+      <c r="C8" s="5" t="n">
         <v>0.00174768518518519</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="n">
+      <c r="D8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="1" t="n">
+      <c r="J8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="K8" s="1" t="n">
+      <c r="K8" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>70265735</v>
       </c>
-      <c r="B9" s="3" t="n">
-        <v>46020</v>
-      </c>
-      <c r="C9" s="4" t="n">
+      <c r="B9" s="4" t="n">
+        <v>46020</v>
+      </c>
+      <c r="C9" s="5" t="n">
         <v>0.00209490740740741</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="n">
+      <c r="D9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="1" t="n">
+      <c r="J9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="K9" s="1" t="n">
+      <c r="K9" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>70265736</v>
       </c>
-      <c r="B10" s="3" t="n">
-        <v>46020</v>
-      </c>
-      <c r="C10" s="4" t="n">
+      <c r="B10" s="4" t="n">
+        <v>46020</v>
+      </c>
+      <c r="C10" s="5" t="n">
         <v>0.00244212962962963</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="n">
+      <c r="D10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="1" t="n">
+      <c r="J10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="K10" s="1" t="n">
+      <c r="K10" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>70265737</v>
       </c>
-      <c r="B11" s="3" t="n">
-        <v>46020</v>
-      </c>
-      <c r="C11" s="4" t="n">
+      <c r="B11" s="4" t="n">
+        <v>46020</v>
+      </c>
+      <c r="C11" s="5" t="n">
         <v>0.00267361111111111</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="n">
+      <c r="D11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="1" t="n">
+      <c r="J11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="K11" s="1" t="n">
+      <c r="K11" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>70265738</v>
       </c>
-      <c r="B12" s="3" t="n">
-        <v>46020</v>
-      </c>
-      <c r="C12" s="4" t="n">
+      <c r="B12" s="4" t="n">
+        <v>46020</v>
+      </c>
+      <c r="C12" s="5" t="n">
         <v>0.00290509259259259</v>
       </c>
-      <c r="D12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="n">
+      <c r="D12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1" t="n">
+      <c r="J12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>70265739</v>
       </c>
-      <c r="B13" s="3" t="n">
-        <v>46020</v>
-      </c>
-      <c r="C13" s="4" t="n">
+      <c r="B13" s="4" t="n">
+        <v>46020</v>
+      </c>
+      <c r="C13" s="5" t="n">
         <v>0.00313657407407407</v>
       </c>
-      <c r="D13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="n">
+      <c r="D13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="n">
         <v>36502</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1" t="n">
+      <c r="J13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>70265742</v>
       </c>
-      <c r="B14" s="3" t="n">
-        <v>46020</v>
-      </c>
-      <c r="C14" s="4" t="n">
+      <c r="B14" s="4" t="n">
+        <v>46020</v>
+      </c>
+      <c r="C14" s="5" t="n">
         <v>0.00347222222222222</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="n">
+      <c r="E14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="n">
         <v>19918</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="1" t="n">
+      <c r="J14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="K14" s="1" t="n">
+      <c r="K14" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>70265743</v>
       </c>
-      <c r="B15" s="3" t="n">
-        <v>46020</v>
-      </c>
-      <c r="C15" s="4" t="n">
+      <c r="B15" s="4" t="n">
+        <v>46020</v>
+      </c>
+      <c r="C15" s="5" t="n">
         <v>0.00491898148148148</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="n">
+      <c r="E15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="n">
         <v>33214</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="1" t="n">
+      <c r="J15" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="K15" s="1" t="n">
+      <c r="K15" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>70265744</v>
       </c>
-      <c r="B16" s="3" t="n">
-        <v>46020</v>
-      </c>
-      <c r="C16" s="4" t="n">
+      <c r="B16" s="4" t="n">
+        <v>46020</v>
+      </c>
+      <c r="C16" s="5" t="n">
         <v>0.00556712962962963</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1" t="n">
+      <c r="E16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="n">
         <v>17267</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="1" t="n">
+      <c r="J16" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="K16" s="1" t="n">
+      <c r="K16" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>70265745</v>
       </c>
-      <c r="B17" s="3" t="n">
-        <v>46020</v>
-      </c>
-      <c r="C17" s="4" t="n">
+      <c r="B17" s="4" t="n">
+        <v>46020</v>
+      </c>
+      <c r="C17" s="5" t="n">
         <v>0.00564814814814815</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F17" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1" t="n">
+      <c r="J17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>70274970</v>
       </c>
-      <c r="B18" s="3" t="n">
-        <v>46020</v>
-      </c>
-      <c r="C18" s="4" t="n">
+      <c r="B18" s="4" t="n">
+        <v>46020</v>
+      </c>
+      <c r="C18" s="5" t="n">
         <v>0.00564814814814815</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1" t="n">
+      <c r="F18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="n">
         <v>112</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1" t="n">
+      <c r="J18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
